--- a/dataset/models/input/Common Formulas+Constants.xlsx
+++ b/dataset/models/input/Common Formulas+Constants.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Operations" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="144">
   <si>
     <t xml:space="preserve">Summary</t>
   </si>
@@ -329,54 +329,7 @@
     <t xml:space="preserve">Labor Cost</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Environment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.Skilled Labor]+[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Environment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.Unskilled Labor]</t>
-    </r>
+    <t xml:space="preserve">[Environment.Skilled Labor]+[Environment.Unskilled Labor]</t>
   </si>
   <si>
     <t xml:space="preserve">CAPEX</t>
@@ -454,12 +407,12 @@
     <t xml:space="preserve">Load Capacity Degradation</t>
   </si>
   <si>
+    <t xml:space="preserve">%/year</t>
+  </si>
+  <si>
     <t xml:space="preserve">LFP</t>
   </si>
   <si>
-    <t xml:space="preserve">%/year</t>
-  </si>
-  <si>
     <t xml:space="preserve">Global</t>
   </si>
   <si>
@@ -482,6 +435,9 @@
   </si>
   <si>
     <t xml:space="preserve">feet2mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inch2mm</t>
   </si>
   <si>
     <t xml:space="preserve">Cost</t>
@@ -503,13 +459,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="#,##0"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000"/>
+    <numFmt numFmtId="168" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -539,12 +496,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -604,7 +555,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -658,6 +609,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -744,15 +699,15 @@
   </sheetPr>
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="112.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="112.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="4" width="12.5"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="4" width="8.84"/>
@@ -1489,10 +1444,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1530,7 +1485,7 @@
         <v>125</v>
       </c>
       <c r="C3" s="11" t="n">
-        <v>-0.01</v>
+        <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>126</v>
@@ -1540,17 +1495,17 @@
       <c r="B4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="10" t="n">
-        <v>-0.25</v>
+      <c r="C4" s="13" t="n">
+        <v>-0.05</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="11"/>
@@ -1575,7 +1530,7 @@
         <v>125</v>
       </c>
       <c r="C8" s="11" t="n">
-        <v>-0.01</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>126</v>
@@ -1587,11 +1542,11 @@
       <c r="B9" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="10" t="n">
-        <v>-0.25</v>
+      <c r="C9" s="13" t="n">
+        <v>-0.025</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1608,7 +1563,7 @@
       <c r="B12" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="13" t="n">
+      <c r="C12" s="14" t="n">
         <v>20</v>
       </c>
       <c r="D12" s="7"/>
@@ -1617,7 +1572,7 @@
       <c r="B13" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="13" t="n">
+      <c r="C13" s="14" t="n">
         <v>72</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -1639,7 +1594,7 @@
       <c r="B15" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="13" t="n">
+      <c r="C15" s="14" t="n">
         <v>24</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -1661,63 +1616,63 @@
       <c r="B17" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="13" t="n">
+      <c r="C17" s="14" t="n">
         <v>305</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="11" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="11"/>
-    </row>
-    <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5"/>
-      <c r="B20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" s="13" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="15"/>
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
       <c r="B21" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="11" t="n">
-        <v>40</v>
+        <v>139</v>
+      </c>
+      <c r="C21" s="14" t="n">
+        <v>2000</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
       <c r="B22" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C22" s="11" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5"/>
       <c r="B23" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C23" s="11" t="n">
-        <v>8.8</v>
+        <v>8</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>69</v>
@@ -1725,77 +1680,88 @@
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C24" s="10" t="n">
+        <v>33</v>
+      </c>
+      <c r="C24" s="11" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="10" t="n">
         <v>0.1</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+    <row r="26" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" s="11" t="n">
+      <c r="B27" s="7"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="11" t="n">
         <v>0.2</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="7" t="s">
+      <c r="D28" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C28" s="11" t="n">
+    </row>
+    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="14"/>
-      <c r="C29" s="11"/>
+      <c r="D29" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="14"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="14"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="14"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="11"/>
     </row>
     <row r="33" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="14"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="11"/>
     </row>
     <row r="34" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="14"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="11"/>
     </row>
     <row r="35" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="14"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="11"/>
     </row>
     <row r="36" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="14"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="11"/>
+    </row>
+    <row r="37" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B37" s="15"/>
+      <c r="C37" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/dataset/models/input/Common Formulas+Constants.xlsx
+++ b/dataset/models/input/Common Formulas+Constants.xlsx
@@ -457,7 +457,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,6 +467,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -526,10 +532,10 @@
     <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -547,7 +553,7 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -887,7 +893,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4"/>
       <c r="B2" s="2" t="s">
         <v>32</v>
@@ -902,7 +908,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>35</v>
@@ -937,7 +943,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
         <v>39</v>
@@ -952,7 +958,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
@@ -1032,7 +1038,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>54</v>
@@ -1047,7 +1053,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="4"/>
       <c r="B14" s="2"/>
       <c r="C14" s="15"/>
@@ -1155,7 +1161,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="4"/>
       <c r="B22" s="2" t="s">
         <v>48</v>
@@ -1170,7 +1176,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
         <v>65</v>
@@ -1185,7 +1191,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="4"/>
       <c r="B24" s="2" t="s">
         <v>68</v>
@@ -1200,7 +1206,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
         <v>71</v>
@@ -1215,7 +1221,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="4"/>
       <c r="B26" s="2" t="s">
         <v>51</v>
@@ -1230,7 +1236,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="4"/>
       <c r="B27" s="2" t="s">
         <v>75</v>
@@ -1245,7 +1251,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="4"/>
       <c r="B28" s="2" t="s">
         <v>77</v>
@@ -1260,7 +1266,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>54</v>

--- a/dataset/models/input/Common Formulas+Constants.xlsx
+++ b/dataset/models/input/Common Formulas+Constants.xlsx
@@ -457,7 +457,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,12 +475,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -512,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -532,16 +526,10 @@
     <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -552,9 +540,6 @@
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -873,21 +858,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="6.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="17" width="42.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="112.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="27.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="42.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="112.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="12"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -898,7 +883,7 @@
       <c r="B2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -913,7 +898,7 @@
       <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -924,9 +909,9 @@
       <c r="G3" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="16"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -936,8 +921,8 @@
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -948,7 +933,7 @@
       <c r="B6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -960,8 +945,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="4"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -972,7 +957,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="15"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="2"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -983,7 +968,7 @@
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -998,7 +983,7 @@
       <c r="B10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1013,7 +998,7 @@
       <c r="B11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1028,7 +1013,7 @@
       <c r="B12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="12" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1043,7 +1028,7 @@
       <c r="B13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1056,7 +1041,7 @@
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="4"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="15"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1067,7 +1052,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="15"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="2"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1078,7 +1063,7 @@
       <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="12" t="s">
         <v>56</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1093,7 +1078,7 @@
       <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="12" t="s">
         <v>58</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -1108,7 +1093,7 @@
       <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1123,7 +1108,7 @@
       <c r="B19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="12" t="s">
         <v>60</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -1138,7 +1123,7 @@
       <c r="B20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="12" t="s">
         <v>61</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1153,7 +1138,7 @@
       <c r="B21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="12" t="s">
         <v>63</v>
       </c>
       <c r="D21" s="2"/>
@@ -1166,7 +1151,7 @@
       <c r="B22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1181,7 +1166,7 @@
       <c r="B23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="12" t="s">
         <v>66</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1196,7 +1181,7 @@
       <c r="B24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="12" t="s">
         <v>69</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1211,7 +1196,7 @@
       <c r="B25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1226,7 +1211,7 @@
       <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="12" t="s">
         <v>74</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1241,7 +1226,7 @@
       <c r="B27" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="12" t="s">
         <v>76</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -1256,7 +1241,7 @@
       <c r="B28" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -1271,7 +1256,7 @@
       <c r="B29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="12" t="s">
         <v>79</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -1284,7 +1269,7 @@
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="15"/>
+      <c r="C30" s="12"/>
       <c r="D30" s="2"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1295,7 +1280,7 @@
         <v>80</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="15"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -1306,7 +1291,7 @@
       <c r="B32" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -1321,7 +1306,7 @@
       <c r="B33" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -1336,7 +1321,7 @@
       <c r="B34" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="12" t="s">
         <v>83</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -1351,7 +1336,7 @@
       <c r="B35" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="12" t="s">
         <v>85</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -1366,7 +1351,7 @@
       <c r="B36" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="12" t="s">
         <v>88</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -1381,7 +1366,7 @@
       <c r="B37" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="12" t="s">
         <v>89</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -1394,7 +1379,7 @@
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="15"/>
+      <c r="C38" s="12"/>
       <c r="D38" s="2"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -1405,7 +1390,7 @@
         <v>19</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="15"/>
+      <c r="C39" s="12"/>
       <c r="D39" s="2"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -1416,7 +1401,7 @@
       <c r="B40" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -1431,7 +1416,7 @@
       <c r="B41" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="12" t="s">
         <v>92</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -1446,7 +1431,7 @@
       <c r="B42" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="12" t="s">
         <v>94</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -1461,7 +1446,7 @@
       <c r="B43" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="12" t="s">
         <v>96</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -1476,7 +1461,7 @@
       <c r="B44" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="12" t="s">
         <v>98</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -1491,7 +1476,7 @@
       <c r="B45" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="12" t="s">
         <v>101</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -1506,7 +1491,7 @@
       <c r="B46" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -1521,7 +1506,7 @@
       <c r="B47" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="12" t="s">
         <v>105</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -1536,7 +1521,7 @@
       <c r="B48" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="12" t="s">
         <v>107</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -1551,7 +1536,7 @@
       <c r="B49" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="12" t="s">
         <v>109</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -1566,7 +1551,7 @@
       <c r="B50" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="12" t="s">
         <v>110</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -1579,7 +1564,7 @@
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="15"/>
+      <c r="C51" s="12"/>
       <c r="D51" s="2"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -1590,18 +1575,18 @@
         <v>111</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="15"/>
+      <c r="C52" s="12"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
-      <c r="A53" s="16"/>
+      <c r="A53" s="13"/>
       <c r="B53" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="12" t="s">
         <v>113</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -1612,11 +1597,11 @@
       <c r="G53" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
-      <c r="A54" s="16"/>
+      <c r="A54" s="13"/>
       <c r="B54" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="12" t="s">
         <v>115</v>
       </c>
       <c r="D54" s="4"/>
@@ -1625,11 +1610,11 @@
       <c r="G54" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
-      <c r="A55" s="16"/>
+      <c r="A55" s="13"/>
       <c r="B55" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="12" t="s">
         <v>117</v>
       </c>
       <c r="D55" s="4"/>
@@ -1638,11 +1623,11 @@
       <c r="G55" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
-      <c r="A56" s="16"/>
+      <c r="A56" s="13"/>
       <c r="B56" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D56" s="4"/>
@@ -1651,11 +1636,11 @@
       <c r="G56" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
-      <c r="A57" s="16"/>
+      <c r="A57" s="13"/>
       <c r="B57" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -1666,11 +1651,11 @@
       <c r="G57" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
-      <c r="A58" s="16"/>
+      <c r="A58" s="13"/>
       <c r="B58" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="12" t="s">
         <v>123</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -1681,11 +1666,11 @@
       <c r="G58" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
-      <c r="A59" s="16"/>
+      <c r="A59" s="13"/>
       <c r="B59" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="12" t="s">
         <v>125</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -1696,11 +1681,11 @@
       <c r="G59" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
-      <c r="A60" s="16"/>
+      <c r="A60" s="13"/>
       <c r="B60" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="12" t="s">
         <v>127</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -1711,11 +1696,11 @@
       <c r="G60" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
-      <c r="A61" s="16"/>
+      <c r="A61" s="13"/>
       <c r="B61" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="12" t="s">
         <v>129</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -1726,11 +1711,11 @@
       <c r="G61" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
-      <c r="A62" s="16"/>
+      <c r="A62" s="13"/>
       <c r="B62" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="12" t="s">
         <v>131</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -1741,11 +1726,11 @@
       <c r="G62" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
-      <c r="A63" s="16"/>
+      <c r="A63" s="13"/>
       <c r="B63" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -1756,11 +1741,11 @@
       <c r="G63" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
-      <c r="A64" s="16"/>
+      <c r="A64" s="13"/>
       <c r="B64" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="12" t="s">
         <v>135</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -1771,11 +1756,11 @@
       <c r="G64" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
-      <c r="A65" s="16"/>
+      <c r="A65" s="13"/>
       <c r="B65" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="12" t="s">
         <v>137</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -1786,11 +1771,11 @@
       <c r="G65" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
-      <c r="A66" s="16"/>
+      <c r="A66" s="13"/>
       <c r="B66" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="12" t="s">
         <v>139</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -1801,11 +1786,11 @@
       <c r="G66" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
-      <c r="A67" s="16"/>
+      <c r="A67" s="13"/>
       <c r="B67" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="12" t="s">
         <v>141</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -1816,11 +1801,11 @@
       <c r="G67" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
-      <c r="A68" s="16"/>
+      <c r="A68" s="13"/>
       <c r="B68" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C68" s="12" t="s">
         <v>143</v>
       </c>
       <c r="D68" s="2" t="s">
@@ -1855,12 +1840,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="28.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="28.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -1918,7 +1903,7 @@
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="4"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1978,7 +1963,7 @@
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
       <c r="A10" s="4"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1998,7 +1983,7 @@
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>20</v>
       </c>
       <c r="D12" s="2"/>
@@ -2010,7 +1995,7 @@
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>72</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -2038,7 +2023,7 @@
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2066,7 +2051,7 @@
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>305</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -2092,7 +2077,7 @@
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
       <c r="A19" s="4"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
+      <c r="C19" s="3"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -2101,7 +2086,7 @@
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="10"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -2112,7 +2097,7 @@
       <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>2000</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -2180,7 +2165,7 @@
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
       <c r="A26" s="4"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
+      <c r="C26" s="3"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -2225,7 +2210,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="10"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -2233,7 +2218,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="10"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -2241,7 +2226,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="10"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="3"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -2249,7 +2234,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="10"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="3"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -2257,7 +2242,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="10"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="3"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -2265,7 +2250,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="4"/>
-      <c r="B35" s="10"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="3"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -2273,7 +2258,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
       <c r="A36" s="4"/>
-      <c r="B36" s="10"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="3"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -2281,7 +2266,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
       <c r="A37" s="4"/>
-      <c r="B37" s="10"/>
+      <c r="B37" s="7"/>
       <c r="C37" s="3"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>

--- a/dataset/models/input/Common Formulas+Constants.xlsx
+++ b/dataset/models/input/Common Formulas+Constants.xlsx
@@ -1,21 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminkauffmann/Desktop/Azasimul/azasimul/dataset/models/input/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DCB4B5-1C42-9C4E-A5BD-50C91FC97BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="16460" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Operations"/>
-    <sheet r:id="rId2" sheetId="2" name="Constants"/>
+    <sheet name="Operations" sheetId="1" r:id="rId1"/>
+    <sheet name="Constants" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="172">
   <si>
     <t>AZA</t>
   </si>
@@ -368,9 +386,6 @@
     <t>Electricity cost of losses during one full cycle</t>
   </si>
   <si>
-    <t>[Constants.Global.DC_required_kWh]*(1/[BatterySystem.RTE]-1)*[Constants.Global.DC_elec_USDperkWh]*1000</t>
-  </si>
-  <si>
     <t>Electricity losses over cycles</t>
   </si>
   <si>
@@ -447,17 +462,104 @@
   </si>
   <si>
     <t>{Container Quantity}*[BatterySystem.BatteryPack Quantity]*[BatteryPack.BMS Cost]</t>
+  </si>
+  <si>
+    <t>Casing</t>
+  </si>
+  <si>
+    <t>BMS cost as percent of cell cost</t>
+  </si>
+  <si>
+    <t>Pack Assembly Cost</t>
+  </si>
+  <si>
+    <t>[BMS Cost]/([Cell.Factory Cost] + [Cell.Material Cost])</t>
+  </si>
+  <si>
+    <t>{CasingCost} + [BMS Cost] + [Cell.Factory Cost] + [Cell.Material Cost]</t>
+  </si>
+  <si>
+    <t>Inverter_cost_ydecr</t>
+  </si>
+  <si>
+    <t>({System Nominal Power Daily} * 20.9)/1000</t>
+  </si>
+  <si>
+    <t>Total Container Cost incl Inverters</t>
+  </si>
+  <si>
+    <t>Total Container Cost wo Inverters</t>
+  </si>
+  <si>
+    <t>{Battery Packs Cost}+{Shelve and Tubes Cost}+{Balance of System Cost}+[HVAC Cost]+{Other Cost}+[Balloons Cost]</t>
+  </si>
+  <si>
+    <t>Inverters Cost</t>
+  </si>
+  <si>
+    <t>{Total Container Cost wo Inverters} + {Inverters Cost}</t>
+  </si>
+  <si>
+    <t>{Container Quantity}*{Container.Inverters Cost}</t>
+  </si>
+  <si>
+    <t>Racks Cost</t>
+  </si>
+  <si>
+    <t>Container Enclosure Cost</t>
+  </si>
+  <si>
+    <t>{Container Quantity} * {Container.Balance of System Cost}</t>
+  </si>
+  <si>
+    <t>{Container Quantity} * [Container.Cost]</t>
+  </si>
+  <si>
+    <t>[BatteryPack.RTE]*(1-[BatteryPack.Battery Losses])*(1-[BatteryPack.HVAC losses])</t>
+  </si>
+  <si>
+    <t>Cabling Cost</t>
+  </si>
+  <si>
+    <t>{Container Quantity} * {Container.Shelve and Tubes Cost}</t>
+  </si>
+  <si>
+    <t>RTE system level</t>
+  </si>
+  <si>
+    <t>[Constants.Global.DC_required_kWh]*(1/[BatteryPack.RTE]-1)*[Constants.Global.DC_elec_USDperkWh]*1000</t>
+  </si>
+  <si>
+    <t>Total cost per pack replacement</t>
+  </si>
+  <si>
+    <t>Service cost to replace packs</t>
+  </si>
+  <si>
+    <t>Cost per pack replacement</t>
+  </si>
+  <si>
+    <t>{Cost per pack replacement}*0.15</t>
+  </si>
+  <si>
+    <t>{Cell.Total Cost Per kWh}*(0.96**[Cell.End of life])*10*1000</t>
+  </si>
+  <si>
+    <t>NPC</t>
+  </si>
+  <si>
+    <t>{System.TCO}/(1-{Market.Real WACC})</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,6 +579,28 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFF7981D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -506,59 +630,82 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="23">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -569,10 +716,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -610,71 +757,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -702,7 +849,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -725,11 +872,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -738,13 +885,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -754,7 +901,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -763,7 +910,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -772,7 +919,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -780,10 +927,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -848,1032 +995,977 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="9" width="27.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="42.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="112.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="112.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="4"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="13"/>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="4"/>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="12"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    </row>
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    </row>
+    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>46</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    </row>
+    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    </row>
+    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="10" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="1" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="B18" s="2"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>60</v>
+        <v>24</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+        <v>57</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>61</v>
+        <v>22</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+        <v>57</v>
+      </c>
       <c r="G20" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C24" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="4"/>
-      <c r="B22" s="2" t="s">
+      <c r="D24" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C25" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="4"/>
-      <c r="B23" s="2" t="s">
+    </row>
+    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C26" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="4"/>
-      <c r="B24" s="2" t="s">
+    </row>
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C27" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="4"/>
-      <c r="B25" s="2" t="s">
+    </row>
+    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C28" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="4"/>
-      <c r="B26" s="2" t="s">
+    </row>
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C29" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="4"/>
-      <c r="B27" s="2" t="s">
+    </row>
+    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C30" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="4"/>
-      <c r="B28" s="2" t="s">
+    </row>
+    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C31" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+    </row>
+    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>81</v>
+        <v>54</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>82</v>
+        <v>144</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>83</v>
+        <v>145</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>147</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+      <c r="B35" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="B36" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="10"/>
+    </row>
+    <row r="39" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
-      <c r="A39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+    </row>
+    <row r="40" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>90</v>
+      <c r="C40" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>92</v>
+        <v>45</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
-      <c r="A42" s="4"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>94</v>
+        <v>84</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
-      <c r="A43" s="4"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
       <c r="B43" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>96</v>
+        <v>87</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
-      <c r="A44" s="4"/>
+    </row>
+    <row r="44" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
       <c r="B44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C52" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="2" t="s">
+    </row>
+    <row r="53" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C53" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="2" t="s">
+      <c r="D53" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C54" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="2" t="s">
+      <c r="D54" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C55" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="2" t="s">
+      <c r="D55" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C56" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="2" t="s">
+      <c r="D56" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C57" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="2" t="s">
+      <c r="D57" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C58" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
-      <c r="A52" s="1" t="s">
+      <c r="D58" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="2" t="s">
+      <c r="B64" s="15"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="17"/>
+    </row>
+    <row r="65" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="14"/>
+      <c r="B65" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C65" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D65" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="2" t="s">
+    </row>
+    <row r="66" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="14"/>
+      <c r="B66" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C66" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="2" t="s">
+      <c r="D66" s="17"/>
+    </row>
+    <row r="67" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="14"/>
+      <c r="B67" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C67" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D67" s="17"/>
+    </row>
+    <row r="68" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="14"/>
+      <c r="B68" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
-      <c r="A56" s="13"/>
-      <c r="B56" s="2" t="s">
+      <c r="C68" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="D68" s="17"/>
+    </row>
+    <row r="69" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="14"/>
+      <c r="B69" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
-      <c r="A57" s="13"/>
-      <c r="B57" s="2" t="s">
+      <c r="C69" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="D69" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="14"/>
+      <c r="B70" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
-      <c r="A58" s="13"/>
-      <c r="B58" s="2" t="s">
+      <c r="C70" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="D70" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="14"/>
+      <c r="B71" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
-      <c r="A59" s="13"/>
-      <c r="B59" s="2" t="s">
+      <c r="C71" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="D71" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="14"/>
+      <c r="B72" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
-      <c r="A60" s="13"/>
-      <c r="B60" s="2" t="s">
+      <c r="C72" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="D72" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="14"/>
+      <c r="B73" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
-      <c r="A61" s="13"/>
-      <c r="B61" s="2" t="s">
+      <c r="C73" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="D73" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="14"/>
+      <c r="B74" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
-      <c r="A62" s="13"/>
-      <c r="B62" s="2" t="s">
+      <c r="C74" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="D74" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="14"/>
+      <c r="B75" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
-      <c r="A63" s="13"/>
-      <c r="B63" s="2" t="s">
+      <c r="C75" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="D75" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="14"/>
+      <c r="B76" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
-      <c r="A64" s="13"/>
-      <c r="B64" s="2" t="s">
+      <c r="C76" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="D76" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="14"/>
+      <c r="B77" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
-      <c r="A65" s="13"/>
-      <c r="B65" s="2" t="s">
+      <c r="C77" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="D77" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="14"/>
+      <c r="B78" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
-      <c r="A66" s="13"/>
-      <c r="B66" s="2" t="s">
+      <c r="C78" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="D78" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="14"/>
+      <c r="B79" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
-      <c r="A67" s="13"/>
-      <c r="B67" s="2" t="s">
+      <c r="C79" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="D79" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="14"/>
+      <c r="B80" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
-      <c r="A68" s="13"/>
-      <c r="B68" s="2" t="s">
+      <c r="C80" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="C68" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
+      <c r="D80" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="17"/>
+      <c r="B81" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B82" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B83" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B84" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B85" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B86" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C87" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="28.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    </row>
+    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1883,56 +1975,44 @@
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6">
-        <v>-0.05</v>
+      <c r="C4" s="5">
+        <v>0.05</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="6"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    </row>
+    <row r="6" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    </row>
+    <row r="7" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>0.9</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="4"/>
       <c r="F7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row r="8" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>3</v>
@@ -1943,125 +2023,98 @@
       <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="4"/>
       <c r="F8" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row r="9" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="6">
-        <v>-0.025</v>
+      <c r="C9" s="5">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="6"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    </row>
+    <row r="11" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    </row>
+    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>20</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>72</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>0.06</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>0.01</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="4"/>
+    </row>
+    <row r="17" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>305</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
@@ -2071,42 +2124,31 @@
       <c r="D18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="7"/>
+    </row>
+    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="6"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    </row>
+    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="7"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    </row>
+    <row r="21" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>2000</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    </row>
+    <row r="22" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
         <v>22</v>
@@ -2117,10 +2159,8 @@
       <c r="D22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    </row>
+    <row r="23" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
         <v>24</v>
@@ -2131,148 +2171,108 @@
       <c r="D23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="4"/>
+    </row>
+    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="3">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="4"/>
+    </row>
+    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>0.1</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="1" t="s">
+    </row>
+    <row r="26" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="6"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C29" s="3">
         <v>0.2</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="2" t="s">
+    </row>
+    <row r="30" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C30" s="3">
         <v>1</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="7"/>
+      <c r="D30" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="6"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="7"/>
+    </row>
+    <row r="32" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="6"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="7"/>
+    </row>
+    <row r="33" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="6"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="7"/>
+    </row>
+    <row r="34" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="6"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="7"/>
+    </row>
+    <row r="35" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="6"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="7"/>
+    </row>
+    <row r="36" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="6"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="7"/>
+    </row>
+    <row r="37" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="6"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="6"/>
+      <c r="C38" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>